--- a/makerwiki_Auftrag.xlsx
+++ b/makerwiki_Auftrag.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CTercanoglu\Desktop\Tools\DATENBLAETTER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CTercanoglu\sciebo\Cem\VS_CODE\makerwiki\makerwiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C99C8EF-005F-4C8D-9653-0C40B9794142}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7517BE-C10B-4D43-AC2A-04E35C3350DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4095" yWindow="-23505" windowWidth="25500" windowHeight="22395" xr2:uid="{D4761CC6-CE53-1D44-8505-30EF4ED88847}"/>
   </bookViews>
@@ -880,8 +880,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/makerwiki_Auftrag.xlsx
+++ b/makerwiki_Auftrag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CTercanoglu\sciebo\Cem\VS_CODE\makerwiki\makerwiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7517BE-C10B-4D43-AC2A-04E35C3350DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE065CB8-C92B-4188-99A5-C762276C94B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4095" yWindow="-23505" windowWidth="25500" windowHeight="22395" xr2:uid="{D4761CC6-CE53-1D44-8505-30EF4ED88847}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
   <si>
     <t>Eigenschaften</t>
   </si>
@@ -366,6 +366,15 @@
   </si>
   <si>
     <t>true false</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Select radio</t>
   </si>
 </sst>
 </file>
@@ -880,8 +889,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1147,6 +1156,9 @@
         <v>49</v>
       </c>
       <c r="C23" s="4"/>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
@@ -1156,6 +1168,9 @@
         <v>55</v>
       </c>
       <c r="C24" s="10"/>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
@@ -1167,6 +1182,9 @@
       <c r="C25" s="12" t="s">
         <v>59</v>
       </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
@@ -1194,6 +1212,9 @@
         <v>43</v>
       </c>
       <c r="C28" s="10"/>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">

--- a/makerwiki_Auftrag.xlsx
+++ b/makerwiki_Auftrag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CTercanoglu\sciebo\Cem\VS_CODE\makerwiki\makerwiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE065CB8-C92B-4188-99A5-C762276C94B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2E0D98-B65F-4C6F-9D80-52C4F5D60C6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4095" yWindow="-23505" windowWidth="25500" windowHeight="22395" xr2:uid="{D4761CC6-CE53-1D44-8505-30EF4ED88847}"/>
   </bookViews>
@@ -889,8 +889,8 @@
   </sheetPr>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
